--- a/plan/project detailed plan.xlsx
+++ b/plan/project detailed plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="회원관련" sheetId="1" r:id="rId1"/>
@@ -1738,27 +1738,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 전시 섬네일(이미지)
-2. 관람객 평균 별점, 전시명, 일정, 장소
-3. 성별 그래프, 나이대 그래프
-4. 관람료 안내
-5. 구매하기 버튼
-6. 찜하기 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세정보(탭1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰(탭3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도(탭2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>탐색 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1788,18 +1767,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 상단 : 상세정보 / 지도 / 리뷰 탭버튼으로 분류
-2. 전시 상세 정보(전시소개, 전시 일정, 장소, 작가소개 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 상단 : 상세정보 / 지도 / 리뷰 탭버튼으로 분류
-2. 제목 : 전시장 안내
-3. 전시장 이름
-4. 지도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지도 삽입방법 참고-
 https://chobolife.github.io/blog/2019/10/05/map-in-blog/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1814,13 +1781,6 @@
   </si>
   <si>
     <t>검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 상단 : 상세정보 / 지도 / 리뷰 탭버튼으로 분류
-2. 작성 완료한 게시글들 최신순으로 노출
-   (별점, 아이디(00*000), 작성내용)
-3. 별점높은순/별점낮은순 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2632,6 +2592,46 @@
       <t>으로 이동. 리뷰 작성폼에 해당 내용이 자동생성되고 글 수정 가능하다.
 · 삭제 버튼 : 작성된 게시글 삭제</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 전시 섬네일(이미지)
+2. 관람객 평균 별점, 전시명, 일정, 장소, 조회수
+3. 성별 그래프, 나이대 그래프
+4. 관람료 안내
+5. 구매하기 버튼
+6. 찜하기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전시 위치(탭2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관람자 리뷰(탭3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 내용(탭1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 상단 : 상세 내용 / 전시 위치 / 관람자 리뷰 탭버튼으로 분류
+2. 전시 상세 정보(전시소개, 전시 일정, 장소, 작가소개 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 상단 : 상세 내용 / 전시 위치 / 관람자 리뷰 탭버튼으로 분류
+2. 제목 : 전시장 안내
+3. 전시장 이름
+4. 지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 상단 : 상세 내용 / 전시 위치 / 관람자 리뷰 탭버튼으로 분류
+2. 작성 완료한 게시글들 최신순으로 노출
+   (별점, 아이디(00*000), 작성내용)
+3. 별점높은순/별점낮은순 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2893,7 +2893,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2994,7 +2994,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3073,7 +3073,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3152,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3231,7 +3231,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3310,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3394,7 +3394,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3462,15 +3462,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
+      <xdr:rowOff>447675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3067050</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>866775</xdr:rowOff>
+      <xdr:rowOff>942975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3478,7 +3478,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3486,7 +3486,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12144375" y="3400425"/>
+          <a:off x="12839700" y="3819525"/>
           <a:ext cx="3067050" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3557,7 +3557,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3641,7 +3641,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3991,7 +3991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -4083,7 +4083,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>18</v>
@@ -4182,38 +4182,38 @@
         <v>17</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="115.5">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="82.5" hidden="1">
@@ -4221,73 +4221,73 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="99">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="108" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="116.25" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="102.75" hidden="1" customHeight="1">
@@ -4298,96 +4298,96 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="111" hidden="1" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="99">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="E19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="99">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="82.5">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="66">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="E22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -5479,8 +5479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5531,7 +5531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="109.5" customHeight="1">
+    <row r="3" spans="2:10" ht="136.5" customHeight="1">
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
@@ -5546,10 +5546,10 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="6" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="91.5" customHeight="1">
@@ -5559,28 +5559,28 @@
         <v>59</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="6" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="2:10" ht="76.5" customHeight="1">
+    <row r="5" spans="2:10" ht="82.5">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="6" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -5588,54 +5588,54 @@
       <c r="B6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="110.25" customHeight="1">
       <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="46.5" customHeight="1">
       <c r="B8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H8" s="9"/>
     </row>
@@ -6332,16 +6332,16 @@
         <v>46</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="48" customHeight="1">
@@ -6356,16 +6356,16 @@
         <v>54</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="49.5">
@@ -6377,16 +6377,16 @@
         <v>55</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -6395,56 +6395,56 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="53.25" customHeight="1">
       <c r="B7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="57" hidden="1" customHeight="1">
       <c r="B8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:10">

--- a/plan/project detailed plan.xlsx
+++ b/plan/project detailed plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="회원관련" sheetId="1" r:id="rId1"/>
@@ -1513,19 +1513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 공지사항 
-2. 이벤트
-3. 푸터
-      -로고
-      -이용약관, 개인정보 수집 및 이용 링크버튼
-      -회사이름, 대표이사, 개인정보책임자, 회사주소, 카피라이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>· 공지사항, 이벤트 : 각 게시판 작게 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 최상단 메뉴 : 로그인, 회원가입, 고객센터, 이벤트
         -회원이 로그인하면 메뉴 변경 : 로그아웃, 마이페이지, 고객센터, 이벤트
 2. 로고
@@ -2632,6 +2619,45 @@
 2. 작성 완료한 게시글들 최신순으로 노출
    (별점, 아이디(00*000), 작성내용)
 3. 별점높은순/별점낮은순 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 공지사항 게시판, 더보기 버튼
+2. 이벤트 게시판, 더보기 버튼
+3. 푸터
+      -로고
+      -이용약관, 개인정보 수집 및 이용 링크버튼
+      -회사이름, 대표이사, 개인정보책임자, 회사주소, 카피라이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">· 공지사항, 이벤트 : 각 게시판 작게 노출
+· 더보기 버튼 : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>각 게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 이동</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2893,7 +2919,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2994,7 +3020,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3073,7 +3099,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3178,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3231,7 +3257,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3336,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3394,7 +3420,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3478,7 +3504,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3557,7 +3583,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3641,7 +3667,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4083,7 +4109,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>18</v>
@@ -4182,38 +4208,38 @@
         <v>17</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="115.5">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="82.5" hidden="1">
@@ -4221,73 +4247,73 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="99">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="108" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="116.25" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="102.75" hidden="1" customHeight="1">
@@ -4298,96 +4324,96 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="111" hidden="1" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="99">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="99">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="82.5">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="H21" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="66">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="E22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="H22" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -4725,8 +4751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4792,13 +4818,13 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="110.25" customHeight="1">
@@ -4823,13 +4849,13 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="6" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -5479,7 +5505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -5539,31 +5565,31 @@
         <v>32</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="91.5" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -5572,15 +5598,15 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -5588,54 +5614,54 @@
       <c r="B6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="110.25" customHeight="1">
       <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="46.5" customHeight="1">
       <c r="B8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H8" s="9"/>
     </row>
@@ -6332,16 +6358,16 @@
         <v>46</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="48" customHeight="1">
@@ -6350,22 +6376,22 @@
         <v>47</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="49.5">
@@ -6374,19 +6400,19 @@
         <v>45</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -6395,56 +6421,56 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="53.25" customHeight="1">
       <c r="B7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="57" hidden="1" customHeight="1">
       <c r="B8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:10">

--- a/plan/project detailed plan.xlsx
+++ b/plan/project detailed plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="회원관련" sheetId="1" r:id="rId1"/>
@@ -658,7 +658,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="148">
   <si>
     <t>기능 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1801,34 +1801,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">· 검색 버튼을 누르면 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>설정에 맞는 결과(db조회)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>가 검색창 하단에 노출</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>뷰 예시 : 각자 아이디로 아무 사이트에서 전시 구매창 가보기ㅎㅎ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2658,6 +2630,38 @@
       </rPr>
       <t>으로 이동</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">· 검색 버튼을 누르면 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>설정에 맞는 결과(db조회)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가 검색창 하단에 노출</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>· 페이징 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4017,7 +4021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -4109,7 +4113,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>18</v>
@@ -4208,38 +4212,38 @@
         <v>17</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="115.5">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="82.5" hidden="1">
@@ -4247,73 +4251,73 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="99">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="108" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="I14" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="116.25" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="102.75" hidden="1" customHeight="1">
@@ -4324,96 +4328,96 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="111" hidden="1" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="99">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="I19" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="99">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="82.5">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="66">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -4751,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4849,10 +4853,10 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>55</v>
@@ -5505,8 +5509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5572,10 +5576,10 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="91.5" customHeight="1">
@@ -5585,11 +5589,11 @@
         <v>57</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -5598,11 +5602,11 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="6" t="s">
@@ -5614,13 +5618,13 @@
       <c r="B6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>67</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>69</v>
@@ -5647,7 +5651,7 @@
         <v>63</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>64</v>
@@ -5663,7 +5667,9 @@
       <c r="G8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="9"/>
@@ -6364,10 +6370,10 @@
         <v>73</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="48" customHeight="1">
@@ -6385,10 +6391,10 @@
         <v>67</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>72</v>
@@ -6403,16 +6409,16 @@
         <v>53</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>67</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -6421,16 +6427,16 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>67</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>72</v>
@@ -6439,16 +6445,16 @@
     <row r="7" spans="2:10" ht="53.25" customHeight="1">
       <c r="B7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>67</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>72</v>
@@ -6458,19 +6464,19 @@
       <c r="B8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="G8" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:10">

--- a/plan/project detailed plan.xlsx
+++ b/plan/project detailed plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="회원관련" sheetId="1" r:id="rId1"/>
@@ -1435,266 +1435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">· 전시 목록 : 한 줄에 4개씩. 개별로 클릭 시 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당 전시 안내페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">로 이동
-· 그래프 : 안내페이지 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>조회수에 따라 그래프</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 기능
-· 달력: ① 전시 시작일을 월별로 표기. 
-         ② 오늘 날짜가 다른색으로 표시됨. 
-         ③ 전시 일정을 누르면 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당 전시 안내페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로 이동</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 최상단 메뉴 : 로그인, 회원가입, 고객센터, 이벤트
-        -회원이 로그인하면 메뉴 변경 : 로그아웃, 마이페이지, 고객센터, 이벤트
-2. 로고
-3. 검색창
-4. 메인메뉴 : 미술전, 사진전, 테마전
-5. 이미지 슬라이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">· 로그인 : 클릭시 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로그인 페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">로 연결
-· 회원가입 : 클릭시 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>회원가입 페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">로 연결
-· 고객센터 : 클릭시 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>고객센터 페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">로 연결
-· 이벤트 : 클릭시 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이벤트 페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">로 연결
-· 로그아웃 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로그아웃 처리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-· 마이페이지 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>마이페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">로 연결
-· 검색창 : 클릭시 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>검색페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로 연결
-· 이미지 슬라이드 : 이미지 자동 슬라이드</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이벤트 게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1789,15 +1529,6 @@
   </si>
   <si>
     <t>작성권한 : 관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 전시 정보(섬네일, 전시이름)
-2. 표 개수(유아, 청년, 성인별 개수 선택)
-3. 총 금액
-4. 구매자 정보(이름, 폰번호, 이메일 자동입력)
-5. 결제방법(포인트결제)
-6. 구매하기 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2110,46 +1841,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>마이페이지 찜목록에 추가. 데이터에 저장됨</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">· 개수 설정에 따라 금액 총합 자동 표기
-· 구매하기 : 클릭시 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>구매처리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(해당 계정 포인트에서 금액 차감). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>구매내역이 데이터에 저장됨</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2662,6 +2353,319 @@
   </si>
   <si>
     <t>· 페이징 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">· 로그인 : 클릭시 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인 페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로 이동
+· 회원가입 : 클릭시 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원가입 페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로 이동
+· 고객센터 : 클릭시 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>고객센터 페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로 이동
+· 이벤트 : 클릭시 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이벤트 페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로 이동
+· 로그아웃 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그아웃 처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+· 마이페이지 : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>마이페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로 이동
+· 검색창 : 클릭시 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>검색페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 이동
+· 이미지 슬라이드 : 이미지 자동 슬라이드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 최상단 메뉴 : 로그인, 회원가입, 고객센터, 이벤트
+        -회원이 로그인하면 메뉴 변경 : 로그아웃, 마이페이지, 고객센터, 이벤트
+2. 로고
+3. 검색창
+4. 메인메뉴 : 미술전, 사진전, 테마전
+5. 이미지 슬라이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">· 전시 목록 : 한 줄에 4개씩. 개별로 클릭 시 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당 전시 안내페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로 이동
+· 그래프 : 안내페이지 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조회수에 따라 그래프</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 기능
+· 달력: ① 전시 시작일을 월별로 표기. 
+         ② 오늘 날짜가 다른색으로 표시됨. 
+         ③ 전시 일정을 누르면 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당 전시 안내페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 전시 정보(섬네일, 전시이름)
+2. 표 개수(유아, 청년, 성인별 개수 선택)
+3. 총 금액
+4. 구매자 정보
+  - 이름(자동입력)
+  - 폰번호(입력칸에 자동입력), 변경 버튼
+  - 이메일(입력칸에 자동입력), 변경 버튼
+5. 결제방법(포인트결제)
+6. 구매하기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">· 개수 설정에 따라 금액 총합 자동 표기
+· 변경 버튼 : 클릭시 alert(정보가 변경되었습니다.) + 결제 페이지 내에서만 변경된거로 보임(데이터처리x)
+· 구매하기 : 클릭시 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>구매처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(해당 계정 포인트에서 금액 차감). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>구매내역이 데이터에 저장됨</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4021,7 +4025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -4113,7 +4117,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>18</v>
@@ -4212,38 +4216,38 @@
         <v>17</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="115.5">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="82.5" hidden="1">
@@ -4251,73 +4255,73 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="99">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="108" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="116.25" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="102.75" hidden="1" customHeight="1">
@@ -4328,96 +4332,96 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="111" hidden="1" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="99">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="99">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="82.5">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>88</v>
-      </c>
       <c r="G21" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="66">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -4755,8 +4759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4822,13 +4826,13 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="6" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="110.25" customHeight="1">
@@ -4842,7 +4846,7 @@
         <v>48</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="118.5" customHeight="1">
@@ -4853,13 +4857,13 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -5509,7 +5513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -5569,31 +5573,31 @@
         <v>32</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="91.5" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -5602,15 +5606,15 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -5618,57 +5622,57 @@
       <c r="B6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="110.25" customHeight="1">
       <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="H7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="46.5" customHeight="1">
       <c r="B8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -6298,8 +6302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6364,16 +6368,16 @@
         <v>46</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="48" customHeight="1">
@@ -6382,22 +6386,22 @@
         <v>47</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="49.5">
@@ -6406,19 +6410,19 @@
         <v>45</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -6427,56 +6431,56 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="53.25" customHeight="1">
       <c r="B7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="57" hidden="1" customHeight="1">
       <c r="B8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:10">

--- a/plan/project detailed plan.xlsx
+++ b/plan/project detailed plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="회원관련" sheetId="1" r:id="rId1"/>
@@ -853,12 +853,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 아이디는 0000 입니다. (0000에 회원 아이디 자동입력)
-2. 로그인 폼(아이디 입력, 비밀번호 입력, 로그인버튼)
-3. 비밀번호 찾기 링크버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소분류(필요한 페이지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1901,10 +1895,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>· 게시날짜가 지난 이벤트는 자동으로 종료된 이벤트탭 게시글로 넘어감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 분류(FAQ), 글 번호, 제목, 게시날짜
 2. 페이지 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1912,19 +1902,6 @@
   <si>
     <t>1. 분류(공지사항), 글 번호, 제목, 게시날짜
 2. 페이지 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 왼쪽에 탭메뉴
-  - 구매확인/취소, 구매내역
-  - 찜 목록
-  - 나의 리뷰, 리뷰 작성, 나의 1:1 문의
-  - 회원정보 수정, 회원탈퇴
-2. 내용
-  - 잔여 포인트
-  - 최근 본 전시
-  - 최근 본 이벤트
-  - 찜 목록, 더보기 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2666,6 +2643,29 @@
       </rPr>
       <t>구매내역이 데이터에 저장됨</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 왼쪽에 탭메뉴
+  - 구매확인/취소
+  - 찜 목록
+  - 나의 리뷰, 리뷰 작성, 나의 1:1 문의
+  - 회원정보 수정, 회원탈퇴
+2. 내용
+  - 잔여 포인트
+  - 최근 본 전시
+  - 최근 본 이벤트
+  - 찜 목록, 더보기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>· 게시날짜가 지난 이벤트는 자동으로 어둡게 음영처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 회원님의 아이디는 0000 입니다. (0000에 회원 아이디 자동입력)
+2. 로그인 폼(아이디 입력, 비밀번호 입력, 로그인버튼)
+3. 비밀번호 찾기 링크버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2927,7 +2927,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +3028,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3107,7 +3107,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3186,7 +3186,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3265,7 +3265,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3344,7 +3344,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3428,7 +3428,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +3512,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3591,7 +3591,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3675,7 +3675,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,8 +4025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4062,7 +4062,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>12</v>
@@ -4097,7 +4097,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>15</v>
@@ -4114,10 +4114,10 @@
         <v>8</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>18</v>
@@ -4134,13 +4134,13 @@
         <v>8</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -4157,25 +4157,25 @@
         <v>8</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="56.25" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="66">
       <c r="B7" s="9"/>
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="198">
@@ -4188,26 +4188,26 @@
         <v>8</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="75.75" customHeight="1">
       <c r="B9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="165">
@@ -4216,38 +4216,38 @@
         <v>17</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="115.5">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="82.5" hidden="1">
@@ -4255,73 +4255,73 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="99">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="108" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="116.25" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="102.75" hidden="1" customHeight="1">
@@ -4332,96 +4332,96 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="111" hidden="1" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="99">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="I19" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="99">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="82.5">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="66">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -4796,7 +4796,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -4816,54 +4816,54 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="110.25" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="118.5" customHeight="1">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -5550,7 +5550,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -5570,34 +5570,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="91.5" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -5606,15 +5606,15 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -5622,57 +5622,57 @@
       <c r="B6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="110.25" customHeight="1">
       <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="46.5" customHeight="1">
       <c r="B8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -6302,8 +6302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6339,7 +6339,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -6359,70 +6359,70 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="48" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="49.5">
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -6431,56 +6431,56 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="53.25" customHeight="1">
       <c r="B7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="57" hidden="1" customHeight="1">
       <c r="B8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="I8" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:10">

--- a/plan/project detailed plan.xlsx
+++ b/plan/project detailed plan.xlsx
@@ -1369,33 +1369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 상단 : 아이디 찾기 / 비밀번호 찾기 탭버튼으로 분류
-2. 제목 : 아이디 찾기 / 아이디는 휴대폰 인증을 통해 찾을 수 있습니다.
-3. 이름 입력칸
-4. 휴대폰 번호 입력칸 / 인증번호 전송 버튼
-      (db조회 실패: "가입된 회원이 아닙니다." 빨간색)
-      (db조회 성공: "입력하신 번호로 인증번호가 발송되었습니다." alert)
-5. 인증번호 입력칸
-      (성공: "인증에 성공하였습니다." 초록색)
-      (실패: "인증번호가 맞지 않습니다." 빨간색)
-6. 확인 버튼
-       (실패: "입력된 회원정보가 존재하지 않습니다." 네이버 경고)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 상단 : 아이디 찾기 / 비밀번호 찾기 탭버튼으로 분류
-2. 제목 : 비밀번호 찾기 / 비밀번호는 본인 인증을 통해 찾을 수 있습니다.
-3. 아이디 입력칸
-4. 이름 입력칸
-5. 휴대폰 번호 입력칸 / 인증번호 전송 버튼
-6. 인증번호 입력칸
-      (성공: "인증에 성공하였습니다." 초록색)
-      (실패: "인증번호가 맞지 않습니다." 빨간색)
-7. 확인 버튼
-       (실패: "입력된 회원정보가 존재하지 않습니다." 네이버 경고)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인폼 뷰 참고-
 https://www.cangoroo.co.kr/member/login?redirect=https%3A//www.cangoroo.co.kr/main/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2666,6 +2639,33 @@
     <t>1. 회원님의 아이디는 0000 입니다. (0000에 회원 아이디 자동입력)
 2. 로그인 폼(아이디 입력, 비밀번호 입력, 로그인버튼)
 3. 비밀번호 찾기 링크버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 상단 : 아이디 찾기 / 비밀번호 찾기 탭버튼으로 분류
+2. 제목 : 비밀번호는 본인 인증을 통해 찾을 수 있습니다.
+3. 아이디 입력칸
+4. 이름 입력칸
+5. 휴대폰 번호 입력칸 / 인증번호 전송 버튼
+6. 인증번호 입력칸
+      (성공: "인증에 성공하였습니다." 초록색)
+      (실패: "인증번호가 맞지 않습니다." 빨간색)
+7. 확인 버튼
+       (실패: "입력된 회원정보가 존재하지 않습니다." 네이버 경고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 상단 : 아이디 찾기 / 비밀번호 찾기 탭버튼으로 분류
+2. 제목 : 아이디는 휴대폰 인증을 통해 찾을 수 있습니다.
+3. 이름 입력칸
+4. 휴대폰 번호 입력칸 / 인증번호 전송 버튼
+      (db조회 실패: "가입된 회원이 아닙니다." 빨간색)
+      (db조회 성공: "입력하신 번호로 인증번호가 발송되었습니다." alert)
+5. 인증번호 입력칸
+      (성공: "인증에 성공하였습니다." 초록색)
+      (실패: "인증번호가 맞지 않습니다." 빨간색)
+6. 확인 버튼
+       (실패: "입력된 회원정보가 존재하지 않습니다." 네이버 경고)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2927,7 +2927,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +3028,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3107,7 +3107,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3186,7 +3186,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3265,7 +3265,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3344,7 +3344,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3428,7 +3428,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +3512,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3591,7 +3591,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3675,7 +3675,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,8 +4025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4117,7 +4117,7 @@
         <v>24</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>18</v>
@@ -4140,11 +4140,11 @@
         <v>36</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="2:10" ht="231">
+    <row r="6" spans="2:10" ht="214.5">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
@@ -4157,13 +4157,13 @@
         <v>8</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="66">
@@ -4172,13 +4172,13 @@
         <v>21</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="198">
+    <row r="8" spans="2:10" ht="181.5">
       <c r="B8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
@@ -4188,13 +4188,13 @@
         <v>8</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="75.75" customHeight="1">
@@ -4216,38 +4216,38 @@
         <v>17</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="115.5">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="82.5" hidden="1">
@@ -4255,73 +4255,73 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="99">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="108" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="116.25" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="102.75" hidden="1" customHeight="1">
@@ -4332,96 +4332,96 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="111" hidden="1" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="99">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="99">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="82.5">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="H21" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="66">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="E22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="H22" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -4826,13 +4826,13 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="110.25" customHeight="1">
@@ -4843,10 +4843,10 @@
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="118.5" customHeight="1">
@@ -4857,13 +4857,13 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -5573,31 +5573,31 @@
         <v>31</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="91.5" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -5606,15 +5606,15 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -5622,57 +5622,57 @@
       <c r="B6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="110.25" customHeight="1">
       <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="46.5" customHeight="1">
       <c r="B8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -6359,70 +6359,70 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="48" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="49.5">
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -6431,56 +6431,56 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="53.25" customHeight="1">
       <c r="B7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="57" hidden="1" customHeight="1">
       <c r="B8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:10">

--- a/plan/project detailed plan.xlsx
+++ b/plan/project detailed plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="회원관련" sheetId="1" r:id="rId1"/>
@@ -658,7 +658,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="147">
   <si>
     <t>기능 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -724,86 +724,6 @@
 https://www.cangoroo.co.kr/member/join_mobile
 인증번호 기능구현 참고-
 https://velog.io/@josworks27/%ED%9C%B4%EB%8C%80%ED%8F%B0-%EC%9D%B8%EC%A6%9D-%EB%A1%9C%EC%A7%81-%EA%B5%AC%ED%98%84%ED%95%98%EA%B8%B0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1. 상단 제목: MOA 회원가입
-2. 이름 입력칸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(정규식검사)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3. 휴대폰 번호 입력칸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(정규식검사)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 인증번호 전송 버튼
-4. 인증번호 입력칸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(정규식검사)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-5. 전체동의(선택사항 포함) 체크박스
-6. 이용약관(필수) 체크박스, ▽
-7. 개인정보 수집 및 이용(필수) 체크박스, ▽
-8. 이벤트, 서비스안내 수신(선택) 체크박스, ▽
-9. 다음 단계 버튼</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1581,10 +1501,6 @@
   </si>
   <si>
     <t>· 작성 권한 : 티켓을 구매하고 해당 전시 종료일이 지남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본문은 고객센터 1:1 문의게시판 형식과 동일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1616,49 +1532,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>· 완료 버튼 : 클릭시 1:1 게시판에 글 생성
-· 취소 버튼 : 클릭시 작성한 내용이 지워지고 마이페이지 메인화면으로 돌아감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>· 수정 버튼 : 클릭시 변경한 내용 정규식검사 -&gt; 맞으면 정보 수정처리
 · 취소 버튼 : 클릭시 수정한 내용이 리셋되고 마이페이지 메인화면으로 돌아감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">· 리뷰 작성권한이 생긴 전시를 클릭하면 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>리뷰글 작성페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로 넘어감</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 전시 관람 목록
-2. 리뷰 작성권한이 생긴 전시만 클릭 가능
-3. 리뷰 작성을 완료한 전시: "리뷰를 이미 작성하였습니다."
-4. 종료일이 지나지 않은 전시: "아직 리뷰를 작성하실 수 없습니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1861,10 +1736,6 @@
 · 완료 버튼 : 클릭시 전시 안내페이지 리뷰게시판에 글 생성
 · 취소 버튼 : 클릭시 작성한 내용이 지워지고 마이페이지 메인화면으로 돌아감</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 진행중 이벤트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2085,15 +1956,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 제목:  나의 리뷰
-2. 본문: 
-     (작성내역 없을 때) "작성한 내역이 없습니다."
-     (작성내역 있을 때) 게시글 형식으로 노출
-3. 게시글 형식: 리뷰번호, 전시명, 별점, 제목, 리뷰내용
-4. 작성, 수정, 삭제 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>·</t>
     </r>
@@ -2476,15 +2338,6 @@
       <t>로 이동
 · 이미지 슬라이드 : 이미지 자동 슬라이드</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 최상단 메뉴 : 로그인, 회원가입, 고객센터, 이벤트
-        -회원이 로그인하면 메뉴 변경 : 로그아웃, 마이페이지, 고객센터, 이벤트
-2. 로고
-3. 검색창
-4. 메인메뉴 : 미술전, 사진전, 테마전
-5. 이미지 슬라이드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2632,21 +2485,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>· 게시날짜가 지난 이벤트는 자동으로 어둡게 음영처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 회원님의 아이디는 0000 입니다. (0000에 회원 아이디 자동입력)
 2. 로그인 폼(아이디 입력, 비밀번호 입력, 로그인버튼)
 3. 비밀번호 찾기 링크버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>1. 상단 제목: MOA 회원가입
+2. 이름 입력칸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(정규식검사)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. 휴대폰 번호 입력칸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(정규식검사)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 인증번호 받기 버튼
+4. 인증번호 입력칸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(정규식검사)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5. 전체동의(선택사항 포함) 체크박스
+6. 이용약관(필수) 체크박스, ▽
+7. 개인정보 수집 및 이용(필수) 체크박스, ▽
+8. 이벤트, 서비스안내 수신(선택) 체크박스, ▽
+9. 다음 단계 버튼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 상단 : 아이디 찾기 / 비밀번호 찾기 탭버튼으로 분류
-2. 제목 : 비밀번호는 본인 인증을 통해 찾을 수 있습니다.
+2. 제목 : 비밀번호는 본인 인증을 통해 찾으실 수 있습니다.
 3. 아이디 입력칸
 4. 이름 입력칸
-5. 휴대폰 번호 입력칸 / 인증번호 전송 버튼
+5. 휴대폰 번호 입력칸 / 인증번호 받기 버튼
 6. 인증번호 입력칸
       (성공: "인증에 성공하였습니다." 초록색)
       (실패: "인증번호가 맞지 않습니다." 빨간색)
@@ -2656,16 +2585,85 @@
   </si>
   <si>
     <t>1. 상단 : 아이디 찾기 / 비밀번호 찾기 탭버튼으로 분류
-2. 제목 : 아이디는 휴대폰 인증을 통해 찾을 수 있습니다.
+2. 제목 : 아이디는 휴대폰 인증을 통해 찾으실 수 있습니다.
 3. 이름 입력칸
-4. 휴대폰 번호 입력칸 / 인증번호 전송 버튼
+4. 휴대폰 번호 입력칸 / 인증번호 받기 버튼
       (db조회 실패: "가입된 회원이 아닙니다." 빨간색)
-      (db조회 성공: "입력하신 번호로 인증번호가 발송되었습니다." alert)
+      (db조회 성공: "입력하신 번호로 인증번호가 전송되었습니다." alert)
 5. 인증번호 입력칸
       (성공: "인증에 성공하였습니다." 초록색)
       (실패: "인증번호가 맞지 않습니다." 빨간색)
 6. 확인 버튼
        (실패: "입력된 회원정보가 존재하지 않습니다." 네이버 경고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 제목 : 이벤트
+2. 진행중 이벤트(티켓1+1, 50% DC 이벤트)
+3. 종료된 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 제목:  나의 리뷰
+2. 본문: 
+     (작성내역 없을 때) "작성한 내역이 없습니다."
+     (작성내역 있을 때) 게시글 형식으로 노출
+3. 게시글 형식: 리뷰번호, 전시명, 제목, 별점, 리뷰내용
+4. 작성, 수정, 삭제 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 전시 관람 목록
+2. 리뷰 작성권한이 생긴 전시에만 리뷰작성 버튼
+3. 리뷰 작성을 완료한 전시: "리뷰 작성 완료!"
+4. 종료일이 지나지 않은 전시: "아직 리뷰를 작성하실 수 없습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">· 리뷰작성 버튼 : 클릭하면 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>리뷰글 작성페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로 넘어감</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>· 완료 버튼 : 클릭시 1:1 게시판에 글 생성
+· 취소 버튼 : 클릭시 작성한 내용이 지워지고 마이페이지 메인화면으로 돌아감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>· 게시날짜가 지난 이벤트는 자동으로 어둡게 음영처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 최상단 메뉴 : 로그인, 회원가입, 고객센터, 이벤트
+        -회원이 로그인하면 메뉴 변경 : 로그아웃, 마이페이지, 고객센터, 이벤트
+2. 로고
+3. 검색창
+4. 메인메뉴 : 일반 전시, 미술전, 테마전
+5. 이미지 슬라이드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3251,13 +3249,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1371600</xdr:rowOff>
+      <xdr:rowOff>1285875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2009775</xdr:rowOff>
+      <xdr:rowOff>1924050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3273,7 +3271,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12477750" y="7534275"/>
+          <a:off x="13363575" y="7448550"/>
           <a:ext cx="3057525" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3330,13 +3328,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1152525</xdr:rowOff>
+      <xdr:rowOff>1076325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3067050</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1790700</xdr:rowOff>
+      <xdr:rowOff>1714500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3352,7 +3350,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12468225" y="10963275"/>
+          <a:off x="13354050" y="10801350"/>
           <a:ext cx="3057525" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4025,8 +4023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4062,7 +4060,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>12</v>
@@ -4094,10 +4092,10 @@
         <v>8</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>15</v>
@@ -4114,13 +4112,13 @@
         <v>8</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="115.5">
@@ -4134,13 +4132,13 @@
         <v>8</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -4151,103 +4149,103 @@
         <v>4</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="66">
       <c r="B7" s="9"/>
       <c r="E7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="181.5">
       <c r="B8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="75.75" customHeight="1">
       <c r="B9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="165">
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="115.5">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="82.5" hidden="1">
@@ -4255,228 +4253,225 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="99">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="108" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="116.25" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="102.75" hidden="1" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="2:9" ht="120" customHeight="1">
+    <row r="17" spans="2:8" ht="120" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="111" hidden="1" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="111" hidden="1" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="99">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="99">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="99">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="99">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="H20" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="82.5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="82.5">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="66">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="66">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:8">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:8">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:8">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:8">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:8">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:8">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:8">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:8">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:8">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -4759,8 +4754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4796,7 +4791,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -4816,54 +4811,54 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="110.25" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="118.5" customHeight="1">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -5550,7 +5545,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -5570,34 +5565,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="91.5" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -5606,15 +5601,15 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -5622,57 +5617,57 @@
       <c r="B6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="110.25" customHeight="1">
       <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="46.5" customHeight="1">
       <c r="B8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -6303,7 +6298,7 @@
   <dimension ref="B1:J76"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6339,7 +6334,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -6359,70 +6354,70 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="48" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="49.5">
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="49.5">
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J5" s="11"/>
     </row>
@@ -6431,56 +6426,56 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="53.25" customHeight="1">
       <c r="B7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="57" hidden="1" customHeight="1">
       <c r="B8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:10">

--- a/plan/project detailed plan.xlsx
+++ b/plan/project detailed plan.xlsx
@@ -2097,15 +2097,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 공지사항 게시판, 더보기 버튼
-2. 이벤트 게시판, 더보기 버튼
-3. 푸터
-      -로고
-      -이용약관, 개인정보 수집 및 이용 링크버튼
-      -회사이름, 대표이사, 개인정보책임자, 회사주소, 카피라이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">· 공지사항, 이벤트 : 각 게시판 작게 노출
 · 더보기 버튼 : </t>
@@ -2664,6 +2655,15 @@
 3. 검색창
 4. 메인메뉴 : 일반 전시, 미술전, 테마전
 5. 이미지 슬라이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 공지사항 게시판, 더보기 버튼
+2. 이벤트 게시판, 더보기 버튼
+3. 푸터
+      -로고
+      -이용약관, 개인정보 수집 및 이용 링크버튼
+      -회사이름, 대표이사, 개인정보책임자, 회사주소, 카피라이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2925,7 +2925,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3026,7 +3026,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3105,7 +3105,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3184,7 +3184,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3263,7 +3263,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3342,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3426,7 +3426,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3510,7 +3510,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3589,7 +3589,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3673,7 +3673,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4092,7 +4092,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>25</v>
@@ -4155,7 +4155,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>33</v>
@@ -4170,7 +4170,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>22</v>
@@ -4186,7 +4186,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>37</v>
@@ -4220,7 +4220,7 @@
         <v>68</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>113</v>
@@ -4297,7 +4297,7 @@
         <v>60</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>119</v>
@@ -4316,10 +4316,10 @@
         <v>91</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="102.75" hidden="1" customHeight="1">
@@ -4387,7 +4387,7 @@
         <v>88</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="82.5">
@@ -4754,8 +4754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4821,10 +4821,10 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>47</v>
@@ -4841,7 +4841,7 @@
         <v>44</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="118.5" customHeight="1">
@@ -4852,10 +4852,10 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>48</v>
@@ -5650,7 +5650,7 @@
         <v>56</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>57</v>
@@ -5667,7 +5667,7 @@
         <v>59</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -6366,10 +6366,10 @@
         <v>64</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>66</v>
@@ -6390,10 +6390,10 @@
         <v>60</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>65</v>
